--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\computational-intelligence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/refracc/Desktop/Projects/Java/computational-intelligence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782037F3-3167-42CC-A779-BC5363957927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390F6907-14DA-5E45-B965-9E1C65227763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2970" windowWidth="28800" windowHeight="15375" xr2:uid="{4A279805-899D-4610-8288-9ABE29B6FED9}"/>
+    <workbookView xWindow="3940" yWindow="2980" windowWidth="28800" windowHeight="15380" xr2:uid="{4A279805-899D-4610-8288-9ABE29B6FED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="33">
   <si>
     <t>Operator</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Swish</t>
   </si>
   <si>
-    <t>Tanh</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -131,13 +128,20 @@
   <si>
     <t>ReLU</t>
   </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>TanH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -176,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +192,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,21 +509,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30563DD2-FD2F-43D8-BC43-0EE3FB60F966}">
   <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -532,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -546,7 +551,7 @@
         <v>4.0666250659723402E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -560,7 +565,7 @@
         <v>1.99679863409985E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -574,7 +579,7 @@
         <v>2.4801070464590801E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -588,7 +593,7 @@
         <v>1.4444739756501301E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -602,7 +607,7 @@
         <v>1.6286371959337E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -616,7 +621,7 @@
         <v>8.1709168712207902E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -630,7 +635,7 @@
         <v>2.3746038054724999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -644,7 +649,7 @@
         <v>1.28384435562383E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -658,7 +663,7 @@
         <v>7.38863576018833E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -672,14 +677,14 @@
         <v>1.63177582867183E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <f>AVERAGE(D2:D11)</f>
         <v>1.8462821171024175E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -694,7 +699,7 @@
         <v>5.9094188230472003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -709,7 +714,7 @@
         <v>1.2908503955631199E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -724,7 +729,7 @@
         <v>3.8391319576680197E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -739,7 +744,7 @@
         <v>1.32448247516819E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -754,7 +759,7 @@
         <v>5.9691746840425403E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -769,7 +774,7 @@
         <v>1.0374570181675801E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -784,7 +789,7 @@
         <v>1.2664744678014501E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -799,7 +804,7 @@
         <v>1.0934382777317401E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -814,7 +819,7 @@
         <v>2.8118686169703699E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -829,14 +834,14 @@
         <v>1.0639813251122499E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <f>AVERAGE(D12:D21)</f>
         <v>1.4915543884891694E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -851,7 +856,7 @@
         <v>2.3033648963115699E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -866,7 +871,7 @@
         <v>1.44200755032723E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -881,7 +886,7 @@
         <v>1.41299681684333E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -896,7 +901,7 @@
         <v>1.13937477645321E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -911,7 +916,7 @@
         <v>1.4710333694582E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -926,7 +931,7 @@
         <v>3.4104550568670199E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -941,7 +946,7 @@
         <v>1.6012694155382499E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -956,7 +961,7 @@
         <v>1.3046997976120699E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -971,7 +976,7 @@
         <v>2.2134243028690399E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -986,14 +991,14 @@
         <v>1.7137292112830101E-2</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31" si="1">AVERAGE(D22:D31)</f>
         <v>1.801235519356293E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>1.34233268081391E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1028,7 @@
         <v>8.0903222378594496E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>1.1867857598640799E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>1.9249504759624999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>1.7472213023348102E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>2.05011623071614E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>1.4281422291944301E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>1.7110453569526899E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1133,7 @@
         <v>1.28203508730032E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1143,14 +1148,14 @@
         <v>2.0347332354897399E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41">
         <f t="shared" ref="F41" si="2">AVERAGE(D32:D41)</f>
         <v>1.5516394582414567E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>6.5640129010504002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>1.4735005564149599E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>1.2551954571197199E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>1.7803641412597899E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1230,7 @@
         <v>2.4551265607328902E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>2.55531119679938E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>2.0474967561455799E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>2.49574006519457E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>2.10997890301865E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
@@ -1300,14 +1305,14 @@
         <v>1.43111739434773E-2</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51">
         <f t="shared" ref="F51" si="3">AVERAGE(D42:D51)</f>
         <v>1.8260232321138308E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1327,7 @@
         <v>1.84491972028487E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +1342,7 @@
         <v>1.2795757738125401E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1357,7 @@
         <v>2.0095686373680699E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1372,7 @@
         <v>5.2986628845001903E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>7.4816380924943901E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>1.21232709711038E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -1412,10 +1417,10 @@
         <v>1.9611320668795399E-2</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1435,7 @@
         <v>1.79174040885435E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +1450,7 @@
         <v>1.13984130563431E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -1460,14 +1465,14 @@
         <v>1.4753934130427601E-2</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61">
         <f t="shared" ref="F61" si="4">AVERAGE(D52:D61)</f>
         <v>2.5494799399981401E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>3.0916957434544E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>1.4821071585926399E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>1.21650949367816E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>2.3714779602151299E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>1.42758526750151E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1562,7 @@
         <v>1.16216875370692E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1577,7 @@
         <v>2.79929338377779E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1592,7 @@
         <v>3.29475256108357E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1607,7 @@
         <v>3.3368525573292597E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
@@ -1617,14 +1622,14 @@
         <v>1.45862558529734E-2</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F71">
         <f t="shared" ref="F71" si="5">AVERAGE(D62:D71)</f>
         <v>2.1641068464636717E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>8.2040255387193298E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
@@ -1654,7 +1659,7 @@
         <v>1.4928589727512801E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>1.62906701528268E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
@@ -1684,7 +1689,7 @@
         <v>1.1622294169649701E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>1.73076728479729E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>12</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>1.5072652437184199E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>1.00340995215877E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>1.1245307397520599E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -1759,7 +1764,7 @@
         <v>1.14196593300354E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
@@ -1774,14 +1779,14 @@
         <v>1.7308796733749101E-2</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F81">
         <f t="shared" ref="F81" si="7">AVERAGE(D72:D81)</f>
         <v>1.3343376785675851E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>2.8230296876677E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1816,7 @@
         <v>1.7226888439014602E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>8.5655517476868198E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>12</v>
       </c>
@@ -1841,7 +1846,7 @@
         <v>2.7183347322456398E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
@@ -1856,7 +1861,7 @@
         <v>2.1600075727580301E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>12</v>
       </c>
@@ -1871,7 +1876,7 @@
         <v>9.8700491173843007E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
@@ -1886,7 +1891,7 @@
         <v>1.36134074481332E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>3.5410075842589997E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +1921,7 @@
         <v>9.7340658482269107E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>12</v>
       </c>
@@ -1931,14 +1936,14 @@
         <v>3.00432921497128E-2</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F91">
         <f t="shared" ref="F91" si="8">AVERAGE(D82:D91)</f>
         <v>2.0147705051946234E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +1958,7 @@
         <v>9.6710735207166595E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>1.6040972705282399E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>12</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>1.49455456330225E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>12</v>
       </c>
@@ -1998,7 +2003,7 @@
         <v>1.35342369710439E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>12</v>
       </c>
@@ -2013,7 +2018,7 @@
         <v>1.31074606485902E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>6.9413391243457303E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
@@ -2043,7 +2048,7 @@
         <v>1.33513512237787E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>12</v>
       </c>
@@ -2058,7 +2063,7 @@
         <v>1.2598822077793E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2078,7 @@
         <v>2.54609718574078E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>12</v>
       </c>
@@ -2088,14 +2093,14 @@
         <v>6.2167037977469298E-3</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F101">
         <f t="shared" ref="F101" si="9">AVERAGE(D92:D101)</f>
         <v>1.3186847755972782E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
@@ -2110,7 +2115,7 @@
         <v>8.9497844049828603E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -2125,7 +2130,7 @@
         <v>1.3056388941976299E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>3.3051397313373802E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>3.1306253660611301E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>12</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>1.74272038343713E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>9.5756083995446901E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>12</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>1.3945244503707399E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>12</v>
       </c>
@@ -2215,7 +2220,7 @@
         <v>4.8562206412698997E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>12</v>
       </c>
@@ -2230,7 +2235,7 @@
         <v>2.1616708290055301E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>12</v>
       </c>
@@ -2245,14 +2250,14 @@
         <v>1.6839032393942702E-2</v>
       </c>
       <c r="E111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F111">
         <f t="shared" ref="F111" si="10">AVERAGE(D102:D111)</f>
         <v>2.1432982815526462E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>17</v>
       </c>
@@ -2267,7 +2272,7 @@
         <v>1.8784229772036001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>17</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>6.58018914704976E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +2302,7 @@
         <v>5.1841952679152599E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>17</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>3.3939095671198197E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>17</v>
       </c>
@@ -2327,7 +2332,7 @@
         <v>7.0080193310065098E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>17</v>
       </c>
@@ -2342,7 +2347,7 @@
         <v>7.0073782937515594E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>17</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>5.0271446623702899E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>17</v>
       </c>
@@ -2372,7 +2377,7 @@
         <v>5.8822351372476503E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>17</v>
       </c>
@@ -2387,7 +2392,7 @@
         <v>3.7552615491513702E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>17</v>
       </c>
@@ -2402,14 +2407,14 @@
         <v>5.1164441673751698E-2</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F121" s="4">
         <f t="shared" ref="F121" si="11">AVERAGE(D112:D121)</f>
         <v>5.0833200100190989E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>17</v>
       </c>
@@ -2424,7 +2429,7 @@
         <v>4.7740854355795399E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>17</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>5.0488385550167703E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>17</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>2.16886956092276E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>17</v>
       </c>
@@ -2469,7 +2474,7 @@
         <v>3.67757322537412E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>17</v>
       </c>
@@ -2484,7 +2489,7 @@
         <v>3.42514233632858E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>2.8739258250894201E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>17</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>3.8211129394637902E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>17</v>
       </c>
@@ -2529,7 +2534,7 @@
         <v>2.0566612716157898E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>17</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>2.58508919766452E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>17</v>
       </c>
@@ -2559,14 +2564,14 @@
         <v>2.6491565429453301E-2</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
-      </c>
-      <c r="F131">
+        <v>28</v>
+      </c>
+      <c r="F131" s="4">
         <f t="shared" ref="F131" si="12">AVERAGE(D122:D131)</f>
         <v>2.8536500190485526E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>1.71780344088962E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>17</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>1.0554492006716E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>17</v>
       </c>
@@ -2611,7 +2616,7 @@
         <v>1.28897509336571E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>17</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>1.7466435853210099E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>17</v>
       </c>
@@ -2641,7 +2646,7 @@
         <v>1.47926347719789E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>17</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>3.45475794700505E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>17</v>
       </c>
@@ -2671,7 +2676,7 @@
         <v>1.02708588021591E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>17</v>
       </c>
@@ -2686,7 +2691,7 @@
         <v>2.7279241863909901E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>17</v>
       </c>
@@ -2701,7 +2706,7 @@
         <v>9.0026086324340795E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>17</v>
       </c>
@@ -2716,14 +2721,14 @@
         <v>1.6167630037063799E-2</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F141">
         <f t="shared" ref="F141" si="14">AVERAGE(D132:D141)</f>
         <v>1.701492667800757E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>21</v>
       </c>
@@ -2738,7 +2743,7 @@
         <v>2.4216706602394101E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>21</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>1.63728755013464E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>21</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>9.2838446074418393E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>21</v>
       </c>
@@ -2783,7 +2788,7 @@
         <v>2.4108632314581002E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>21</v>
       </c>
@@ -2798,7 +2803,7 @@
         <v>1.3266558176753899E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>21</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>2.22994806201635E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>21</v>
       </c>
@@ -2828,7 +2833,7 @@
         <v>6.5366683114757799E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>21</v>
       </c>
@@ -2843,7 +2848,7 @@
         <v>7.7105153238165398E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -2858,7 +2863,7 @@
         <v>8.3278442459666507E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>21</v>
       </c>
@@ -2873,14 +2878,14 @@
         <v>1.53444549048601E-2</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F151">
         <f t="shared" ref="F151" si="15">AVERAGE(D142:D151)</f>
         <v>1.4746758060879984E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>21</v>
       </c>
@@ -2895,7 +2900,7 @@
         <v>1.0561360739894001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>21</v>
       </c>
@@ -2910,7 +2915,7 @@
         <v>1.26409057282038E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>21</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>1.3812781054534699E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>21</v>
       </c>
@@ -2940,7 +2945,7 @@
         <v>8.1308370969273396E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>21</v>
       </c>
@@ -2955,7 +2960,7 @@
         <v>9.4619596472191002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>21</v>
       </c>
@@ -2970,7 +2975,7 @@
         <v>9.1912687164295605E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>21</v>
       </c>
@@ -2985,7 +2990,7 @@
         <v>1.0558155973967901E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>21</v>
       </c>
@@ -3000,7 +3005,7 @@
         <v>6.1242389722452398E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>21</v>
       </c>
@@ -3015,7 +3020,7 @@
         <v>4.3756926955755698E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>21</v>
       </c>
@@ -3030,14 +3035,14 @@
         <v>1.7321823852991899E-2</v>
       </c>
       <c r="E161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F161">
         <f t="shared" ref="F161" si="16">AVERAGE(D152:D161)</f>
         <v>1.4156025873816924E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
@@ -3052,7 +3057,7 @@
         <v>1.17327339287674E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>23</v>
       </c>
@@ -3067,7 +3072,7 @@
         <v>2.0733732749614601E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>23</v>
       </c>
@@ -3082,7 +3087,7 @@
         <v>1.6849929820504699E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>23</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>6.4836347190002003E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>23</v>
       </c>
@@ -3112,7 +3117,7 @@
         <v>0.10721100545972299</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>23</v>
       </c>
@@ -3127,7 +3132,7 @@
         <v>1.7543386017383599E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>23</v>
       </c>
@@ -3142,7 +3147,7 @@
         <v>8.0864159442866207E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>23</v>
       </c>
@@ -3157,7 +3162,7 @@
         <v>1.7596886156474902E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>23</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>1.6547723554157699E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -3187,14 +3192,14 @@
         <v>1.6577937710782802E-2</v>
       </c>
       <c r="E171" t="s">
-        <v>29</v>
-      </c>
-      <c r="F171">
+        <v>28</v>
+      </c>
+      <c r="F171" s="5">
         <f t="shared" ref="F171" si="17">AVERAGE(D162:D171)</f>
         <v>2.9771609853169727E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>23</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>3.8937272458470097E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>23</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>1.00530593690992E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>23</v>
       </c>
@@ -3239,7 +3244,7 @@
         <v>1.83140516487857E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>23</v>
       </c>
@@ -3254,7 +3259,7 @@
         <v>1.08462996241956E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>23</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>1.2082628361126399E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>23</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>5.8027915548022502E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>23</v>
       </c>
@@ -3299,7 +3304,7 @@
         <v>1.0964516007822301E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>23</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>7.6729319607630403E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>23</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>1.50891213492338E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>23</v>
       </c>
@@ -3344,19 +3349,19 @@
         <v>7.6739671606744801E-3</v>
       </c>
       <c r="E181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F181">
         <f t="shared" ref="F181" si="18">AVERAGE(D172:D181)</f>
         <v>1.8966176348819315E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C182" s="2">
         <f t="shared" si="13"/>
@@ -3366,12 +3371,12 @@
         <v>6.4901091451262296E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C183" s="2">
         <f t="shared" si="13"/>
@@ -3381,12 +3386,12 @@
         <v>9.2631831948876107E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C184" s="2">
         <f t="shared" si="13"/>
@@ -3396,12 +3401,12 @@
         <v>1.6823570733442102E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C185" s="2">
         <f t="shared" si="13"/>
@@ -3411,12 +3416,12 @@
         <v>1.0883581413515401E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C186" s="2">
         <f t="shared" si="13"/>
@@ -3426,12 +3431,12 @@
         <v>8.7301078540854404E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C187" s="2">
         <f t="shared" si="13"/>
@@ -3441,12 +3446,12 @@
         <v>1.02222995416645E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C188" s="2">
         <f t="shared" si="13"/>
@@ -3456,12 +3461,12 @@
         <v>5.2416009280245304E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C189" s="2">
         <f t="shared" si="13"/>
@@ -3471,12 +3476,12 @@
         <v>2.4439845644146301E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C190" s="2">
         <f t="shared" si="13"/>
@@ -3486,29 +3491,29 @@
         <v>1.3203842656026799E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C191" s="2">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="3">
         <v>9.8992483981251798E-3</v>
       </c>
       <c r="E191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F191">
         <f t="shared" ref="F191" si="19">AVERAGE(D182:D191)</f>
         <v>1.1519738950904409E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>23</v>
       </c>
@@ -3519,11 +3524,11 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="2">
         <v>2.83623171184091E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>23</v>
       </c>
@@ -3534,11 +3539,11 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="2">
         <v>2.7247992130630099E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>23</v>
       </c>
@@ -3549,11 +3554,11 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="3">
         <v>4.20101102648405E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>23</v>
       </c>
@@ -3564,11 +3569,11 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="2">
         <v>2.8352491686096101E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
@@ -3579,11 +3584,11 @@
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="3">
         <v>2.1722860131347499E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>23</v>
       </c>
@@ -3594,11 +3599,11 @@
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="2">
         <v>1.6283356084131301E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>23</v>
       </c>
@@ -3609,11 +3614,11 @@
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="2">
         <v>1.9954343675793299E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>23</v>
       </c>
@@ -3624,11 +3629,11 @@
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="2">
         <v>3.31538215149218E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>23</v>
       </c>
@@ -3639,11 +3644,11 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="2">
         <v>1.04494755672248E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>23</v>
       </c>
@@ -3654,18 +3659,18 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="2">
         <v>3.92349931860939E-2</v>
       </c>
       <c r="E201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F201">
         <f t="shared" ref="F201" si="20">AVERAGE(D192:D201)</f>
         <v>2.6677176135948843E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>23</v>
       </c>
@@ -3676,11 +3681,11 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="2">
         <v>7.7598387851555003E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>23</v>
       </c>
@@ -3691,11 +3696,11 @@
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="2">
         <v>1.1433562340328799E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>23</v>
       </c>
@@ -3706,11 +3711,11 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="2">
         <v>8.35747148626452E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>23</v>
       </c>
@@ -3721,11 +3726,11 @@
         <f t="shared" ref="C205:C221" si="21">C195</f>
         <v>4</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="2">
         <v>1.15000927917559E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>23</v>
       </c>
@@ -3736,11 +3741,11 @@
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="3">
         <v>7.66977974856917E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>23</v>
       </c>
@@ -3751,11 +3756,11 @@
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="2">
         <v>1.68382833471548E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>23</v>
       </c>
@@ -3766,11 +3771,11 @@
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="2">
         <v>9.5416962285818294E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>23</v>
       </c>
@@ -3781,11 +3786,11 @@
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="2">
         <v>1.1938953545940901E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>23</v>
       </c>
@@ -3796,11 +3801,11 @@
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="2">
         <v>1.11646759120364E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>23</v>
       </c>
@@ -3811,488 +3816,522 @@
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="2">
         <v>9.0485171205071293E-3</v>
       </c>
       <c r="E211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F211">
         <f t="shared" ref="F211" si="22">AVERAGE(D202:D211)</f>
         <v>1.9112813736353144E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C212" s="2">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="D212">
-        <v>8.9500619165289608E-3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D212" s="2">
+        <v>1.2348516796977099E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C213" s="2">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D213" s="2">
+        <v>2.2365181576914198E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C214" s="2">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D214" s="2">
+        <v>1.04045351935824E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C215" s="2">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D215" s="2">
+        <v>1.03713481526372E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C216" s="2">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D216" s="2">
+        <v>7.5346679931402698E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C217" s="2">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D217" s="3">
+        <v>6.1200102222630998E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C218" s="2">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D218" s="2">
+        <v>1.21144476109501E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C219" s="2">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D219" s="3">
+        <v>9.8692996533559802E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C220" s="2">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D220" s="2">
+        <v>9.9305311582048791E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C221" s="2">
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
+      <c r="D221" s="2">
+        <v>1.11980015979085E-2</v>
+      </c>
       <c r="E221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F221">
         <f t="shared" ref="F221" si="23">AVERAGE(D212:D221)</f>
-        <v>8.9500619165289608E-3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.1225653995593372E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>31</v>
+      </c>
+      <c r="F224">
+        <f>MIN(D2:D221)</f>
+        <v>5.0488385550167703E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
